--- a/data/pca/factorExposure/factorExposure_2015-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01772225501066522</v>
+        <v>0.01775179413862391</v>
       </c>
       <c r="C2">
-        <v>-0.03174408905172884</v>
+        <v>-0.03259875672455757</v>
       </c>
       <c r="D2">
-        <v>0.09385859710969792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1161980992110028</v>
+      </c>
+      <c r="E2">
+        <v>-0.06307694148931477</v>
+      </c>
+      <c r="F2">
+        <v>-0.0206376395858411</v>
+      </c>
+      <c r="G2">
+        <v>0.04770309807455148</v>
+      </c>
+      <c r="H2">
+        <v>0.09789159379055069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01901401135824026</v>
+        <v>0.01107737021906061</v>
       </c>
       <c r="C3">
-        <v>-0.05259017898227209</v>
+        <v>-0.03586605519507911</v>
       </c>
       <c r="D3">
-        <v>0.1450663414579974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08390892447068751</v>
+      </c>
+      <c r="E3">
+        <v>-0.05991091600874982</v>
+      </c>
+      <c r="F3">
+        <v>-0.03278981771739858</v>
+      </c>
+      <c r="G3">
+        <v>0.07887219343171407</v>
+      </c>
+      <c r="H3">
+        <v>0.04722317145921159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05052597580701373</v>
+        <v>0.05452221396973615</v>
       </c>
       <c r="C4">
-        <v>-0.03456412269616353</v>
+        <v>-0.06365064201016706</v>
       </c>
       <c r="D4">
-        <v>0.1273342625111523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1409343572168102</v>
+      </c>
+      <c r="E4">
+        <v>-0.0461632348787339</v>
+      </c>
+      <c r="F4">
+        <v>-0.02179042021957052</v>
+      </c>
+      <c r="G4">
+        <v>-0.02771317417548774</v>
+      </c>
+      <c r="H4">
+        <v>-0.03393773974831462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04416287036924923</v>
+        <v>0.04061548324858485</v>
       </c>
       <c r="C6">
-        <v>-0.004016614935052314</v>
+        <v>-0.02565771959763166</v>
       </c>
       <c r="D6">
-        <v>0.132068644373825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1296808954998916</v>
+      </c>
+      <c r="E6">
+        <v>-0.02574257169201775</v>
+      </c>
+      <c r="F6">
+        <v>-0.01470675396584463</v>
+      </c>
+      <c r="G6">
+        <v>0.00940893212942683</v>
+      </c>
+      <c r="H6">
+        <v>0.01260416394443911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02300684515555028</v>
+        <v>0.0162368997252839</v>
       </c>
       <c r="C7">
-        <v>-0.01334909844077815</v>
+        <v>-0.02945552801392685</v>
       </c>
       <c r="D7">
-        <v>0.09361433671748379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0919157510773841</v>
+      </c>
+      <c r="E7">
+        <v>-0.02797959142472176</v>
+      </c>
+      <c r="F7">
+        <v>-0.01695170863853982</v>
+      </c>
+      <c r="G7">
+        <v>-0.02568541916866661</v>
+      </c>
+      <c r="H7">
+        <v>0.1014833541768322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008610170081666129</v>
+        <v>0.00688915660003002</v>
       </c>
       <c r="C8">
-        <v>-0.02905940285003914</v>
+        <v>-0.03842890810868251</v>
       </c>
       <c r="D8">
-        <v>0.06290536948446321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07589999638294435</v>
+      </c>
+      <c r="E8">
+        <v>-0.03449989434912176</v>
+      </c>
+      <c r="F8">
+        <v>-0.04091191471588257</v>
+      </c>
+      <c r="G8">
+        <v>0.004030376163034748</v>
+      </c>
+      <c r="H8">
+        <v>0.04439355038824412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04146221412931651</v>
+        <v>0.04153112816369966</v>
       </c>
       <c r="C9">
-        <v>-0.03621817605437542</v>
+        <v>-0.05950494882623662</v>
       </c>
       <c r="D9">
-        <v>0.1101291422440581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1177477196677664</v>
+      </c>
+      <c r="E9">
+        <v>-0.03274774572924018</v>
+      </c>
+      <c r="F9">
+        <v>-0.004177020998735175</v>
+      </c>
+      <c r="G9">
+        <v>-0.02422535093989794</v>
+      </c>
+      <c r="H9">
+        <v>0.002707375628020396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09659754176462901</v>
+        <v>0.1373469211396468</v>
       </c>
       <c r="C10">
-        <v>0.1953573254353686</v>
+        <v>0.1882037243409484</v>
       </c>
       <c r="D10">
-        <v>-0.003015673891882217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.848673716534111e-06</v>
+      </c>
+      <c r="E10">
+        <v>-0.04704332071874321</v>
+      </c>
+      <c r="F10">
+        <v>-0.02065410467235419</v>
+      </c>
+      <c r="G10">
+        <v>-0.04070494372729685</v>
+      </c>
+      <c r="H10">
+        <v>-0.006292567803294525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03518993260514432</v>
+        <v>0.02902190220071232</v>
       </c>
       <c r="C11">
-        <v>-0.03739902638493594</v>
+        <v>-0.04312519761547543</v>
       </c>
       <c r="D11">
-        <v>0.06197781184968377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05842635213007319</v>
+      </c>
+      <c r="E11">
+        <v>0.00545303637721186</v>
+      </c>
+      <c r="F11">
+        <v>-0.002154484660191297</v>
+      </c>
+      <c r="G11">
+        <v>-0.007479510094420111</v>
+      </c>
+      <c r="H11">
+        <v>0.04556929188409071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04024517661297083</v>
+        <v>0.03376257091253746</v>
       </c>
       <c r="C12">
-        <v>-0.04036152301488019</v>
+        <v>-0.04588247149636353</v>
       </c>
       <c r="D12">
-        <v>0.06165865870065296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05654049456521835</v>
+      </c>
+      <c r="E12">
+        <v>-0.002032265242418875</v>
+      </c>
+      <c r="F12">
+        <v>0.003816759581808797</v>
+      </c>
+      <c r="G12">
+        <v>-0.01374313748884406</v>
+      </c>
+      <c r="H12">
+        <v>0.05870501130930544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01584991262388335</v>
+        <v>0.01924150521399884</v>
       </c>
       <c r="C13">
-        <v>-0.02578126000293847</v>
+        <v>-0.03878129569260359</v>
       </c>
       <c r="D13">
-        <v>0.1262618521007154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.142760798001082</v>
+      </c>
+      <c r="E13">
+        <v>-0.04934540688792355</v>
+      </c>
+      <c r="F13">
+        <v>-0.0294235575716222</v>
+      </c>
+      <c r="G13">
+        <v>-0.008360917460189231</v>
+      </c>
+      <c r="H13">
+        <v>0.09626889882866604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01163223424194122</v>
+        <v>0.008021498935084876</v>
       </c>
       <c r="C14">
-        <v>-0.0184979807518894</v>
+        <v>-0.02439420421714484</v>
       </c>
       <c r="D14">
-        <v>0.08389442943770069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08517545186464087</v>
+      </c>
+      <c r="E14">
+        <v>-0.03127489826578854</v>
+      </c>
+      <c r="F14">
+        <v>0.007045320825856271</v>
+      </c>
+      <c r="G14">
+        <v>-0.007452674927041648</v>
+      </c>
+      <c r="H14">
+        <v>0.09455596073798508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001321011638013771</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009581709873673653</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0286548310395389</v>
+      </c>
+      <c r="E15">
+        <v>-0.005169573209489102</v>
+      </c>
+      <c r="F15">
+        <v>0.001682276027647633</v>
+      </c>
+      <c r="G15">
+        <v>0.0065645412833359</v>
+      </c>
+      <c r="H15">
+        <v>0.01122147364921042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0371228421929927</v>
+        <v>0.02990772422657026</v>
       </c>
       <c r="C16">
-        <v>-0.03929458759252281</v>
+        <v>-0.04375787908488946</v>
       </c>
       <c r="D16">
-        <v>0.06963898226507323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0613088821864896</v>
+      </c>
+      <c r="E16">
+        <v>-0.008560514814237974</v>
+      </c>
+      <c r="F16">
+        <v>0.007147446368849529</v>
+      </c>
+      <c r="G16">
+        <v>-0.003883711695245332</v>
+      </c>
+      <c r="H16">
+        <v>0.0542389829822414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008350351560849706</v>
+        <v>0.009870617252575362</v>
       </c>
       <c r="C19">
-        <v>-0.01881445058604164</v>
+        <v>-0.02104443641691322</v>
       </c>
       <c r="D19">
-        <v>0.1715090007848088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1311889585504748</v>
+      </c>
+      <c r="E19">
+        <v>-0.06577700630337477</v>
+      </c>
+      <c r="F19">
+        <v>0.01423255181238864</v>
+      </c>
+      <c r="G19">
+        <v>0.01186180675521881</v>
+      </c>
+      <c r="H19">
+        <v>0.06369991078316913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02132247520671977</v>
+        <v>0.01629276859527633</v>
       </c>
       <c r="C20">
-        <v>-0.01926778020150363</v>
+        <v>-0.03209028173019597</v>
       </c>
       <c r="D20">
-        <v>0.08818766860761819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0958682421390951</v>
+      </c>
+      <c r="E20">
+        <v>-0.0508597025256908</v>
+      </c>
+      <c r="F20">
+        <v>0.002169009208043919</v>
+      </c>
+      <c r="G20">
+        <v>-0.00852613431844529</v>
+      </c>
+      <c r="H20">
+        <v>0.05440265422144779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009817465705498038</v>
+        <v>0.01530597712748364</v>
       </c>
       <c r="C21">
-        <v>-0.02499829437834929</v>
+        <v>-0.03664478605684125</v>
       </c>
       <c r="D21">
-        <v>0.1287141478240161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1383772689700384</v>
+      </c>
+      <c r="E21">
+        <v>-0.08685295241476995</v>
+      </c>
+      <c r="F21">
+        <v>0.001771067266973634</v>
+      </c>
+      <c r="G21">
+        <v>-0.04856332763088063</v>
+      </c>
+      <c r="H21">
+        <v>0.1044858914376443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005014701707965025</v>
+        <v>0.005485132693880251</v>
       </c>
       <c r="C22">
-        <v>-0.02465690781256533</v>
+        <v>-0.03951345461293775</v>
       </c>
       <c r="D22">
-        <v>0.07476990188548298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1305661364202086</v>
+      </c>
+      <c r="E22">
+        <v>-0.02030911071028712</v>
+      </c>
+      <c r="F22">
+        <v>-0.08875847276602265</v>
+      </c>
+      <c r="G22">
+        <v>0.07067535734925019</v>
+      </c>
+      <c r="H22">
+        <v>-0.03142663130030884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005071047626257119</v>
+        <v>0.005581353630385098</v>
       </c>
       <c r="C23">
-        <v>-0.02459630979598863</v>
+        <v>-0.03996247096204378</v>
       </c>
       <c r="D23">
-        <v>0.07419208506331033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1300240456023584</v>
+      </c>
+      <c r="E23">
+        <v>-0.0205657293053283</v>
+      </c>
+      <c r="F23">
+        <v>-0.08872539656715317</v>
+      </c>
+      <c r="G23">
+        <v>0.06980780976238449</v>
+      </c>
+      <c r="H23">
+        <v>-0.03180428457210085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03575328922999838</v>
+        <v>0.03126321923076743</v>
       </c>
       <c r="C24">
-        <v>-0.04344347877504314</v>
+        <v>-0.05444246383631851</v>
       </c>
       <c r="D24">
-        <v>0.0703312019406178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06571740653394231</v>
+      </c>
+      <c r="E24">
+        <v>-0.01039247640782542</v>
+      </c>
+      <c r="F24">
+        <v>0.004196924723096444</v>
+      </c>
+      <c r="G24">
+        <v>-0.01730625274143696</v>
+      </c>
+      <c r="H24">
+        <v>0.0638385376106419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04191790361836632</v>
+        <v>0.03607516032849475</v>
       </c>
       <c r="C25">
-        <v>-0.04705141089487515</v>
+        <v>-0.05295442848808713</v>
       </c>
       <c r="D25">
-        <v>0.06958712179760038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06163029798294546</v>
+      </c>
+      <c r="E25">
+        <v>-0.01071361113879652</v>
+      </c>
+      <c r="F25">
+        <v>-0.002173033145892959</v>
+      </c>
+      <c r="G25">
+        <v>-0.02123461334666354</v>
+      </c>
+      <c r="H25">
+        <v>0.05184026907364037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02275959947012522</v>
+        <v>0.02009434981220731</v>
       </c>
       <c r="C26">
-        <v>-0.003103623631847246</v>
+        <v>-0.01697806479835884</v>
       </c>
       <c r="D26">
-        <v>0.05454590018030545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06462208030749469</v>
+      </c>
+      <c r="E26">
+        <v>-0.02796118863515586</v>
+      </c>
+      <c r="F26">
+        <v>-0.002447902249953831</v>
+      </c>
+      <c r="G26">
+        <v>-0.0004090595226168597</v>
+      </c>
+      <c r="H26">
+        <v>0.05697224583313227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1404989207507295</v>
+        <v>0.1944501891412825</v>
       </c>
       <c r="C28">
-        <v>0.2737305164198836</v>
+        <v>0.2544306872577898</v>
       </c>
       <c r="D28">
-        <v>-0.03926374368080028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01542079726855474</v>
+      </c>
+      <c r="E28">
+        <v>-0.07282081830545048</v>
+      </c>
+      <c r="F28">
+        <v>-0.007279870572832102</v>
+      </c>
+      <c r="G28">
+        <v>-0.07515785845993729</v>
+      </c>
+      <c r="H28">
+        <v>0.0003392606952453421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005310766582559973</v>
+        <v>0.00690398335526421</v>
       </c>
       <c r="C29">
-        <v>-0.01800731907997025</v>
+        <v>-0.02292541832463707</v>
       </c>
       <c r="D29">
-        <v>0.06686288944678762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07958793122220363</v>
+      </c>
+      <c r="E29">
+        <v>-0.03167286197839687</v>
+      </c>
+      <c r="F29">
+        <v>-0.004885031259548934</v>
+      </c>
+      <c r="G29">
+        <v>-0.02422370074577368</v>
+      </c>
+      <c r="H29">
+        <v>0.09536214833398533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04328944626593182</v>
+        <v>0.04360335633492265</v>
       </c>
       <c r="C30">
-        <v>-0.03197499957138167</v>
+        <v>-0.05858020356303433</v>
       </c>
       <c r="D30">
-        <v>0.1659945941608699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1768271197352533</v>
+      </c>
+      <c r="E30">
+        <v>-0.01459797957922368</v>
+      </c>
+      <c r="F30">
+        <v>-0.004733027630988155</v>
+      </c>
+      <c r="G30">
+        <v>0.03476260245606664</v>
+      </c>
+      <c r="H30">
+        <v>0.004321990892380035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.067702560891925</v>
+        <v>0.05610938183962923</v>
       </c>
       <c r="C31">
-        <v>-0.0488624619609591</v>
+        <v>-0.07152105340737797</v>
       </c>
       <c r="D31">
-        <v>0.06598317184429918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05479104579946217</v>
+      </c>
+      <c r="E31">
+        <v>-0.02632559853513464</v>
+      </c>
+      <c r="F31">
+        <v>-0.03783547971629846</v>
+      </c>
+      <c r="G31">
+        <v>-0.01391129788138273</v>
+      </c>
+      <c r="H31">
+        <v>0.03387198859037802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001290585881853058</v>
+        <v>0.01098106697623404</v>
       </c>
       <c r="C32">
-        <v>-0.004561706748458482</v>
+        <v>-0.01623696891578513</v>
       </c>
       <c r="D32">
-        <v>0.05963583230116798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09366590464707616</v>
+      </c>
+      <c r="E32">
+        <v>-0.08138112743767703</v>
+      </c>
+      <c r="F32">
+        <v>-0.01460858960201384</v>
+      </c>
+      <c r="G32">
+        <v>-0.05929086541535105</v>
+      </c>
+      <c r="H32">
+        <v>0.0873084248389623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02769108349265062</v>
+        <v>0.02523449967485523</v>
       </c>
       <c r="C33">
-        <v>-0.01992282781495279</v>
+        <v>-0.04125194432931204</v>
       </c>
       <c r="D33">
-        <v>0.1363637415311097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1323047023368868</v>
+      </c>
+      <c r="E33">
+        <v>-0.03825235569351743</v>
+      </c>
+      <c r="F33">
+        <v>-0.01556402676802</v>
+      </c>
+      <c r="G33">
+        <v>-0.01049708160558288</v>
+      </c>
+      <c r="H33">
+        <v>0.06288341102112899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03388073449784119</v>
+        <v>0.02850388834308746</v>
       </c>
       <c r="C34">
-        <v>-0.05881894126954593</v>
+        <v>-0.06097395968729504</v>
       </c>
       <c r="D34">
-        <v>0.07097515956944481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05963002665830979</v>
+      </c>
+      <c r="E34">
+        <v>0.006836411484668851</v>
+      </c>
+      <c r="F34">
+        <v>0.009664648037771966</v>
+      </c>
+      <c r="G34">
+        <v>-0.01863383198247159</v>
+      </c>
+      <c r="H34">
+        <v>0.07135755708180506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007325398994081689</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003344204338659197</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.003704824733729682</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002837811366885414</v>
+      </c>
+      <c r="F35">
+        <v>-8.32166557903819e-05</v>
+      </c>
+      <c r="G35">
+        <v>0.0001853082416951726</v>
+      </c>
+      <c r="H35">
+        <v>0.00254974907309171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02174851211291976</v>
+        <v>0.01922532578954632</v>
       </c>
       <c r="C36">
-        <v>-0.0005859641603501841</v>
+        <v>-0.01501842394569125</v>
       </c>
       <c r="D36">
-        <v>0.07423754636244703</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07740983969582714</v>
+      </c>
+      <c r="E36">
+        <v>-0.03234526329988672</v>
+      </c>
+      <c r="F36">
+        <v>0.001367857581269739</v>
+      </c>
+      <c r="G36">
+        <v>-0.01627454644765148</v>
+      </c>
+      <c r="H36">
+        <v>0.04821426682203368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02915065089034044</v>
+        <v>0.02266610695760508</v>
       </c>
       <c r="C38">
-        <v>-0.01567788927308358</v>
+        <v>-0.02194541844659384</v>
       </c>
       <c r="D38">
-        <v>0.06077795301920742</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06233464259576192</v>
+      </c>
+      <c r="E38">
+        <v>-0.03905120584983733</v>
+      </c>
+      <c r="F38">
+        <v>0.004886834353473937</v>
+      </c>
+      <c r="G38">
+        <v>0.03196087825344422</v>
+      </c>
+      <c r="H38">
+        <v>0.04196297675384602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04148964211049337</v>
+        <v>0.03682027755574751</v>
       </c>
       <c r="C39">
-        <v>-0.05062678506052768</v>
+        <v>-0.06412467555324458</v>
       </c>
       <c r="D39">
-        <v>0.09324999537443329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1033809804524607</v>
+      </c>
+      <c r="E39">
+        <v>-0.005289686423110794</v>
+      </c>
+      <c r="F39">
+        <v>0.02627435614732565</v>
+      </c>
+      <c r="G39">
+        <v>-0.004657955091317159</v>
+      </c>
+      <c r="H39">
+        <v>0.07891260956895156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0176220179917848</v>
+        <v>0.01498263925967709</v>
       </c>
       <c r="C40">
-        <v>-0.04112650006345558</v>
+        <v>-0.03688333847294836</v>
       </c>
       <c r="D40">
-        <v>0.07933635728681555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08423574531306151</v>
+      </c>
+      <c r="E40">
+        <v>-0.0629044166664947</v>
+      </c>
+      <c r="F40">
+        <v>-0.06168954906014221</v>
+      </c>
+      <c r="G40">
+        <v>0.01927686141795205</v>
+      </c>
+      <c r="H40">
+        <v>0.169591367714231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0253316518898911</v>
+        <v>0.02331144024120102</v>
       </c>
       <c r="C41">
-        <v>0.009609363248470342</v>
+        <v>-0.007968711230668078</v>
       </c>
       <c r="D41">
-        <v>0.07165025739892893</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05824634782022</v>
+      </c>
+      <c r="E41">
+        <v>-0.04965079298457917</v>
+      </c>
+      <c r="F41">
+        <v>-0.003741359657546622</v>
+      </c>
+      <c r="G41">
+        <v>-0.0005276606769653723</v>
+      </c>
+      <c r="H41">
+        <v>0.04908481609630032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03556266553364078</v>
+        <v>0.0257277254151507</v>
       </c>
       <c r="C43">
-        <v>-0.001198483289832939</v>
+        <v>-0.01845611438124008</v>
       </c>
       <c r="D43">
-        <v>0.1101361097871756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08938114346681554</v>
+      </c>
+      <c r="E43">
+        <v>-0.03188547703204116</v>
+      </c>
+      <c r="F43">
+        <v>-0.005289161446542949</v>
+      </c>
+      <c r="G43">
+        <v>0.001628760950080072</v>
+      </c>
+      <c r="H43">
+        <v>0.0660659155714325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01363883998379688</v>
+        <v>0.01707554150586631</v>
       </c>
       <c r="C44">
-        <v>-0.03892169668193829</v>
+        <v>-0.0408437321318209</v>
       </c>
       <c r="D44">
-        <v>0.08987978304336348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09718882455792906</v>
+      </c>
+      <c r="E44">
+        <v>-0.06719897614472717</v>
+      </c>
+      <c r="F44">
+        <v>-0.006129081652018312</v>
+      </c>
+      <c r="G44">
+        <v>-0.0193885636394593</v>
+      </c>
+      <c r="H44">
+        <v>0.07304780617327515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02018863998840008</v>
+        <v>0.01680857946418188</v>
       </c>
       <c r="C46">
-        <v>-0.01884434543913535</v>
+        <v>-0.02962779626755165</v>
       </c>
       <c r="D46">
-        <v>0.0759928178084604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08665424765786489</v>
+      </c>
+      <c r="E46">
+        <v>-0.0373518075815353</v>
+      </c>
+      <c r="F46">
+        <v>0.0162283812785596</v>
+      </c>
+      <c r="G46">
+        <v>-0.03306019648725601</v>
+      </c>
+      <c r="H46">
+        <v>0.09672826502062787</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09444247534158755</v>
+        <v>0.0848145111484057</v>
       </c>
       <c r="C47">
-        <v>-0.06688857085531318</v>
+        <v>-0.08944928013715718</v>
       </c>
       <c r="D47">
-        <v>0.04342345272459422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03462477239473603</v>
+      </c>
+      <c r="E47">
+        <v>-0.03189772104031229</v>
+      </c>
+      <c r="F47">
+        <v>-0.02407763784798251</v>
+      </c>
+      <c r="G47">
+        <v>-0.05693612489120236</v>
+      </c>
+      <c r="H47">
+        <v>0.01519229918306326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02035500625021145</v>
+        <v>0.0190182357497404</v>
       </c>
       <c r="C48">
-        <v>-0.00689281077784001</v>
+        <v>-0.01887648238339876</v>
       </c>
       <c r="D48">
-        <v>0.07344566331408507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07903918300528463</v>
+      </c>
+      <c r="E48">
+        <v>-0.05172450323421961</v>
+      </c>
+      <c r="F48">
+        <v>0.006447111218425704</v>
+      </c>
+      <c r="G48">
+        <v>-0.01218559077328799</v>
+      </c>
+      <c r="H48">
+        <v>0.05289672105640927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07787312892338209</v>
+        <v>0.06006281332302784</v>
       </c>
       <c r="C50">
-        <v>-0.06189747028693961</v>
+        <v>-0.06998457341301326</v>
       </c>
       <c r="D50">
-        <v>0.07051618047419725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06060497046768595</v>
+      </c>
+      <c r="E50">
+        <v>-0.03885673493140782</v>
+      </c>
+      <c r="F50">
+        <v>-0.04438047010497316</v>
+      </c>
+      <c r="G50">
+        <v>0.008165606603263672</v>
+      </c>
+      <c r="H50">
+        <v>0.04293628970840676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007340915873408125</v>
+        <v>0.007278742797922557</v>
       </c>
       <c r="C51">
-        <v>-0.01310728215550524</v>
+        <v>-0.01584248882540118</v>
       </c>
       <c r="D51">
-        <v>0.07795877313697809</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08622725527091733</v>
+      </c>
+      <c r="E51">
+        <v>-0.02323869529208349</v>
+      </c>
+      <c r="F51">
+        <v>-0.0009005095424607899</v>
+      </c>
+      <c r="G51">
+        <v>0.0002689715974021357</v>
+      </c>
+      <c r="H51">
+        <v>0.0763514288733393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0754248653390114</v>
+        <v>0.08568379623093217</v>
       </c>
       <c r="C53">
-        <v>-0.08882710098737182</v>
+        <v>-0.1018707203823219</v>
       </c>
       <c r="D53">
-        <v>0.02264394209373947</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008395796577811643</v>
+      </c>
+      <c r="E53">
+        <v>-0.09637164609128217</v>
+      </c>
+      <c r="F53">
+        <v>-0.04739324854043406</v>
+      </c>
+      <c r="G53">
+        <v>-0.09513229864547314</v>
+      </c>
+      <c r="H53">
+        <v>-0.01723721451714986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0332199167701638</v>
+        <v>0.02676740376497058</v>
       </c>
       <c r="C54">
-        <v>-0.02884463076306713</v>
+        <v>-0.03527192512290991</v>
       </c>
       <c r="D54">
-        <v>0.08799483440885611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0867787696555299</v>
+      </c>
+      <c r="E54">
+        <v>-0.03893282317390694</v>
+      </c>
+      <c r="F54">
+        <v>0.01442578226949183</v>
+      </c>
+      <c r="G54">
+        <v>-0.005784271389210587</v>
+      </c>
+      <c r="H54">
+        <v>0.1121511627750255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08584992855948981</v>
+        <v>0.08322111528736831</v>
       </c>
       <c r="C55">
-        <v>-0.06817890228292137</v>
+        <v>-0.08265282346060816</v>
       </c>
       <c r="D55">
-        <v>-0.0003779704926556416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01049558271222355</v>
+      </c>
+      <c r="E55">
+        <v>-0.0588449556747502</v>
+      </c>
+      <c r="F55">
+        <v>-0.04485013081032049</v>
+      </c>
+      <c r="G55">
+        <v>-0.04204703514758421</v>
+      </c>
+      <c r="H55">
+        <v>-0.01769661746442675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1337596095675283</v>
+        <v>0.1298387833105952</v>
       </c>
       <c r="C56">
-        <v>-0.1037168085004534</v>
+        <v>-0.1262008828408289</v>
       </c>
       <c r="D56">
-        <v>0.006439430060599852</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01129229517344856</v>
+      </c>
+      <c r="E56">
+        <v>-0.06226314090553185</v>
+      </c>
+      <c r="F56">
+        <v>-0.0315765264587355</v>
+      </c>
+      <c r="G56">
+        <v>-0.05918264599936326</v>
+      </c>
+      <c r="H56">
+        <v>-0.01022788645057963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03618667119384309</v>
+        <v>0.03773707834959949</v>
       </c>
       <c r="C58">
-        <v>0.02578826140020113</v>
+        <v>-0.02110600311943901</v>
       </c>
       <c r="D58">
-        <v>0.403716731090564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3961714336225617</v>
+      </c>
+      <c r="E58">
+        <v>-0.2189654967566441</v>
+      </c>
+      <c r="F58">
+        <v>-0.1490252200900067</v>
+      </c>
+      <c r="G58">
+        <v>0.4071441884626081</v>
+      </c>
+      <c r="H58">
+        <v>-0.3621272138477679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1393340515254225</v>
+        <v>0.1748166361443982</v>
       </c>
       <c r="C59">
-        <v>0.1928603918026332</v>
+        <v>0.1715602300794369</v>
       </c>
       <c r="D59">
-        <v>0.01683547013602807</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04543605481916757</v>
+      </c>
+      <c r="E59">
+        <v>-0.01970864883675755</v>
+      </c>
+      <c r="F59">
+        <v>0.03993818128356371</v>
+      </c>
+      <c r="G59">
+        <v>0.00187002519144794</v>
+      </c>
+      <c r="H59">
+        <v>-0.02248252719486878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2540203026794612</v>
+        <v>0.2305954907650928</v>
       </c>
       <c r="C60">
-        <v>-0.05470617211306314</v>
+        <v>-0.09668920856165744</v>
       </c>
       <c r="D60">
-        <v>0.1362202414008348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1020527349594826</v>
+      </c>
+      <c r="E60">
+        <v>0.3710940619269325</v>
+      </c>
+      <c r="F60">
+        <v>-0.0197960388501269</v>
+      </c>
+      <c r="G60">
+        <v>-0.01288656603610061</v>
+      </c>
+      <c r="H60">
+        <v>-0.1000344586937907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04762665285638509</v>
+        <v>0.04216622228797531</v>
       </c>
       <c r="C61">
-        <v>-0.04920005621784994</v>
+        <v>-0.05955294454393233</v>
       </c>
       <c r="D61">
-        <v>0.1022073339981219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09373311336463656</v>
+      </c>
+      <c r="E61">
+        <v>-0.001423180524872246</v>
+      </c>
+      <c r="F61">
+        <v>0.01652472209912949</v>
+      </c>
+      <c r="G61">
+        <v>-0.02578072811879964</v>
+      </c>
+      <c r="H61">
+        <v>0.07395295213849257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02029413101708477</v>
+        <v>0.01790878236475229</v>
       </c>
       <c r="C63">
-        <v>-0.01497086771580583</v>
+        <v>-0.03132495000195921</v>
       </c>
       <c r="D63">
-        <v>0.06597261995906575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07279253123858115</v>
+      </c>
+      <c r="E63">
+        <v>-0.0318956273115702</v>
+      </c>
+      <c r="F63">
+        <v>-0.01734763959565469</v>
+      </c>
+      <c r="G63">
+        <v>0.00254408594596969</v>
+      </c>
+      <c r="H63">
+        <v>0.04024761633211395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05932050978952591</v>
+        <v>0.05517258435582951</v>
       </c>
       <c r="C64">
-        <v>-0.06025537906097633</v>
+        <v>-0.07941915560192761</v>
       </c>
       <c r="D64">
-        <v>0.0634081913292953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05569656902628143</v>
+      </c>
+      <c r="E64">
+        <v>-0.02545784181334985</v>
+      </c>
+      <c r="F64">
+        <v>0.01594303477752799</v>
+      </c>
+      <c r="G64">
+        <v>-0.05452013764643979</v>
+      </c>
+      <c r="H64">
+        <v>0.0374484417411506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0596625695927015</v>
+        <v>0.05115894363726037</v>
       </c>
       <c r="C65">
-        <v>0.0007644619084676425</v>
+        <v>-0.02485000226087996</v>
       </c>
       <c r="D65">
-        <v>0.1155923523334221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1191971766330702</v>
+      </c>
+      <c r="E65">
+        <v>-0.0004299568595009635</v>
+      </c>
+      <c r="F65">
+        <v>-0.01451752950711478</v>
+      </c>
+      <c r="G65">
+        <v>0.03863896377360181</v>
+      </c>
+      <c r="H65">
+        <v>-0.02215049618484704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04534312731058273</v>
+        <v>0.04255105797298073</v>
       </c>
       <c r="C66">
-        <v>-0.05205062647104795</v>
+        <v>-0.07185044689814013</v>
       </c>
       <c r="D66">
-        <v>0.1154134251686284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1297727688928522</v>
+      </c>
+      <c r="E66">
+        <v>-0.01138473422379288</v>
+      </c>
+      <c r="F66">
+        <v>0.01064168750840025</v>
+      </c>
+      <c r="G66">
+        <v>0.004667491622931138</v>
+      </c>
+      <c r="H66">
+        <v>0.0577543306653841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0475374350111297</v>
+        <v>0.03937529953838814</v>
       </c>
       <c r="C67">
-        <v>-0.0242209056590695</v>
+        <v>-0.02792789893271917</v>
       </c>
       <c r="D67">
-        <v>0.03200814844677134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02505849755096371</v>
+      </c>
+      <c r="E67">
+        <v>-0.02047581863823879</v>
+      </c>
+      <c r="F67">
+        <v>0.0006844214945257456</v>
+      </c>
+      <c r="G67">
+        <v>0.02874119007377535</v>
+      </c>
+      <c r="H67">
+        <v>0.04057785043503524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1705737017212815</v>
+        <v>0.1969728039453363</v>
       </c>
       <c r="C68">
-        <v>0.2507080573406236</v>
+        <v>0.2055553654129865</v>
       </c>
       <c r="D68">
-        <v>-0.01458126793991487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01792806351748388</v>
+      </c>
+      <c r="E68">
+        <v>-0.05005803585620601</v>
+      </c>
+      <c r="F68">
+        <v>-0.03099515632440951</v>
+      </c>
+      <c r="G68">
+        <v>0.009558249221736185</v>
+      </c>
+      <c r="H68">
+        <v>-0.007412328652465039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08453373490609786</v>
+        <v>0.07665726772946907</v>
       </c>
       <c r="C69">
-        <v>-0.07769606770677699</v>
+        <v>-0.09799640736462477</v>
       </c>
       <c r="D69">
-        <v>0.05758455755580165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04845403145154118</v>
+      </c>
+      <c r="E69">
+        <v>-0.02356739528497392</v>
+      </c>
+      <c r="F69">
+        <v>-0.004683456481528397</v>
+      </c>
+      <c r="G69">
+        <v>-0.03955973339196904</v>
+      </c>
+      <c r="H69">
+        <v>0.02729587655382454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1431485361592379</v>
+        <v>0.1811719455408907</v>
       </c>
       <c r="C71">
-        <v>0.2467044450835182</v>
+        <v>0.2162943001067386</v>
       </c>
       <c r="D71">
-        <v>0.01792173103524556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0390808615860622</v>
+      </c>
+      <c r="E71">
+        <v>-0.05059838341290073</v>
+      </c>
+      <c r="F71">
+        <v>-0.0362363216184309</v>
+      </c>
+      <c r="G71">
+        <v>-0.03652179966456786</v>
+      </c>
+      <c r="H71">
+        <v>0.01916653664755062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09896946300074196</v>
+        <v>0.1010072412428275</v>
       </c>
       <c r="C72">
-        <v>-0.03784606371737024</v>
+        <v>-0.06710370359643551</v>
       </c>
       <c r="D72">
-        <v>0.09382513169229842</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09724466056413052</v>
+      </c>
+      <c r="E72">
+        <v>0.03637531528074892</v>
+      </c>
+      <c r="F72">
+        <v>-0.03488799136534342</v>
+      </c>
+      <c r="G72">
+        <v>-0.02473936556679006</v>
+      </c>
+      <c r="H72">
+        <v>0.01840327418435245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2998648804695251</v>
+        <v>0.2520312208135266</v>
       </c>
       <c r="C73">
-        <v>-0.00562190548063982</v>
+        <v>-0.07645364995220316</v>
       </c>
       <c r="D73">
-        <v>0.2282725918230054</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1663688873732969</v>
+      </c>
+      <c r="E73">
+        <v>0.6708646087225192</v>
+      </c>
+      <c r="F73">
+        <v>-0.008663290627785617</v>
+      </c>
+      <c r="G73">
+        <v>0.05323897544132843</v>
+      </c>
+      <c r="H73">
+        <v>-0.144809653145708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.10306834614059</v>
+        <v>0.1009080175929991</v>
       </c>
       <c r="C74">
-        <v>-0.06738678514637174</v>
+        <v>-0.09057760805797836</v>
       </c>
       <c r="D74">
-        <v>0.02570237127323785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0008355664668900472</v>
+      </c>
+      <c r="E74">
+        <v>-0.08072131483675833</v>
+      </c>
+      <c r="F74">
+        <v>-0.05926420582346376</v>
+      </c>
+      <c r="G74">
+        <v>-0.05719753863382251</v>
+      </c>
+      <c r="H74">
+        <v>-0.04747889637510357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2361156401604815</v>
+        <v>0.2293452891531541</v>
       </c>
       <c r="C75">
-        <v>-0.1334256391361117</v>
+        <v>-0.1671181023345085</v>
       </c>
       <c r="D75">
-        <v>-0.0563444787074766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09712116680910308</v>
+      </c>
+      <c r="E75">
+        <v>-0.09491897125132692</v>
+      </c>
+      <c r="F75">
+        <v>-0.005859309018069771</v>
+      </c>
+      <c r="G75">
+        <v>-0.07846055303865306</v>
+      </c>
+      <c r="H75">
+        <v>-0.1081177951802277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1271762913315912</v>
+        <v>0.1259484990179803</v>
       </c>
       <c r="C76">
-        <v>-0.08994011294441766</v>
+        <v>-0.1157603841711862</v>
       </c>
       <c r="D76">
-        <v>0.002577028061676134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01628119431222589</v>
+      </c>
+      <c r="E76">
+        <v>-0.1117295154517619</v>
+      </c>
+      <c r="F76">
+        <v>-0.0279918096818174</v>
+      </c>
+      <c r="G76">
+        <v>-0.06299345341266545</v>
+      </c>
+      <c r="H76">
+        <v>-0.009552151314202832</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06832017958351261</v>
+        <v>0.06400442256362712</v>
       </c>
       <c r="C77">
-        <v>-0.05561305771663244</v>
+        <v>-0.0686982361193048</v>
       </c>
       <c r="D77">
-        <v>0.07095502738507231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1364625078107073</v>
+      </c>
+      <c r="E77">
+        <v>-0.202269770670429</v>
+      </c>
+      <c r="F77">
+        <v>0.2337457161678704</v>
+      </c>
+      <c r="G77">
+        <v>0.1046209691162999</v>
+      </c>
+      <c r="H77">
+        <v>-0.1608651566703003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04010476780076288</v>
+        <v>0.04145467708893456</v>
       </c>
       <c r="C78">
-        <v>-0.04781766509804021</v>
+        <v>-0.06229530023926077</v>
       </c>
       <c r="D78">
-        <v>0.1136230305396655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1245431626266797</v>
+      </c>
+      <c r="E78">
+        <v>-0.009590141410229477</v>
+      </c>
+      <c r="F78">
+        <v>-0.012018397364669</v>
+      </c>
+      <c r="G78">
+        <v>-0.03108004437067464</v>
+      </c>
+      <c r="H78">
+        <v>0.03065605973533847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0006545764139184187</v>
+        <v>0.04223978344549446</v>
       </c>
       <c r="C79">
-        <v>0.0005608086571445574</v>
+        <v>-0.08712559666794149</v>
       </c>
       <c r="D79">
-        <v>0.01762429049684211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02414445691797347</v>
+      </c>
+      <c r="E79">
+        <v>-0.1700866821466808</v>
+      </c>
+      <c r="F79">
+        <v>-0.1280813858847479</v>
+      </c>
+      <c r="G79">
+        <v>-0.5412330155825438</v>
+      </c>
+      <c r="H79">
+        <v>-0.5661675988272724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0298047337982518</v>
+        <v>0.02478182191121982</v>
       </c>
       <c r="C80">
-        <v>-0.01893910924302122</v>
+        <v>-0.03939167724642875</v>
       </c>
       <c r="D80">
-        <v>0.02613125361628166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03502330691334044</v>
+      </c>
+      <c r="E80">
+        <v>-0.0151955312198381</v>
+      </c>
+      <c r="F80">
+        <v>0.03276746555048782</v>
+      </c>
+      <c r="G80">
+        <v>0.03949168648200082</v>
+      </c>
+      <c r="H80">
+        <v>0.02777016731418859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1389322036722542</v>
+        <v>0.1277255325911598</v>
       </c>
       <c r="C81">
-        <v>-0.100236633215039</v>
+        <v>-0.1197531730087681</v>
       </c>
       <c r="D81">
-        <v>-0.04109031182376565</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06507741111119186</v>
+      </c>
+      <c r="E81">
+        <v>-0.1191768924672096</v>
+      </c>
+      <c r="F81">
+        <v>-0.02096529381853202</v>
+      </c>
+      <c r="G81">
+        <v>-0.05187144376453955</v>
+      </c>
+      <c r="H81">
+        <v>-0.02764898169830621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2902491954149937</v>
+        <v>0.2484147782225932</v>
       </c>
       <c r="C82">
-        <v>-0.2764020091841687</v>
+        <v>-0.2551820708419905</v>
       </c>
       <c r="D82">
-        <v>-0.21937240882325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2239802714941645</v>
+      </c>
+      <c r="E82">
+        <v>0.01431811141643938</v>
+      </c>
+      <c r="F82">
+        <v>-0.04403023535990266</v>
+      </c>
+      <c r="G82">
+        <v>-0.251771410180857</v>
+      </c>
+      <c r="H82">
+        <v>0.4466590843699519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02876348487263428</v>
+        <v>0.02289726245042543</v>
       </c>
       <c r="C83">
-        <v>-0.04595287310259933</v>
+        <v>-0.05210607819333301</v>
       </c>
       <c r="D83">
-        <v>0.05046360834342872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0513815207242373</v>
+      </c>
+      <c r="E83">
+        <v>-0.007223608225495496</v>
+      </c>
+      <c r="F83">
+        <v>0.0210458253881223</v>
+      </c>
+      <c r="G83">
+        <v>-0.003167613044615724</v>
+      </c>
+      <c r="H83">
+        <v>0.03152343683780891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002677896565292472</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004961924887006987</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01609642608374885</v>
+      </c>
+      <c r="E84">
+        <v>-0.01421412508943563</v>
+      </c>
+      <c r="F84">
+        <v>-0.007510039754277257</v>
+      </c>
+      <c r="G84">
+        <v>0.009711421820202886</v>
+      </c>
+      <c r="H84">
+        <v>0.002443113519851116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1803960525895542</v>
+        <v>0.1610477426575224</v>
       </c>
       <c r="C85">
-        <v>-0.0933236952555082</v>
+        <v>-0.1330130589213031</v>
       </c>
       <c r="D85">
-        <v>-0.03217048265878765</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06731788273696306</v>
+      </c>
+      <c r="E85">
+        <v>-0.03672379875331502</v>
+      </c>
+      <c r="F85">
+        <v>-0.03952990588411918</v>
+      </c>
+      <c r="G85">
+        <v>-0.08675907471578471</v>
+      </c>
+      <c r="H85">
+        <v>-0.1182949901307155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01476166888954471</v>
+        <v>0.01951574107841637</v>
       </c>
       <c r="C86">
-        <v>-0.01993460554540657</v>
+        <v>-0.02318842390109739</v>
       </c>
       <c r="D86">
-        <v>0.1351737369653115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.125133501508187</v>
+      </c>
+      <c r="E86">
+        <v>-0.01110706767344818</v>
+      </c>
+      <c r="F86">
+        <v>0.007971725551731966</v>
+      </c>
+      <c r="G86">
+        <v>-0.02721945842512605</v>
+      </c>
+      <c r="H86">
+        <v>0.06781042054420625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02758970930924179</v>
+        <v>0.0325891118773108</v>
       </c>
       <c r="C87">
-        <v>-0.001564777588048093</v>
+        <v>-0.0260897408253258</v>
       </c>
       <c r="D87">
-        <v>0.09265602590090145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1268052524086282</v>
+      </c>
+      <c r="E87">
+        <v>-0.08021518018980263</v>
+      </c>
+      <c r="F87">
+        <v>0.009075482476121669</v>
+      </c>
+      <c r="G87">
+        <v>0.005364829687114126</v>
+      </c>
+      <c r="H87">
+        <v>0.03479003416965231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07867277851550097</v>
+        <v>0.07120232118852785</v>
       </c>
       <c r="C88">
-        <v>-0.04112222246039041</v>
+        <v>-0.05838474812182363</v>
       </c>
       <c r="D88">
-        <v>0.05180106982792466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02956127071579552</v>
+      </c>
+      <c r="E88">
+        <v>-0.02386778771211853</v>
+      </c>
+      <c r="F88">
+        <v>-0.005983721331292296</v>
+      </c>
+      <c r="G88">
+        <v>-0.002697285440930401</v>
+      </c>
+      <c r="H88">
+        <v>0.03503655797832021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2054170337635674</v>
+        <v>0.2718480001491629</v>
       </c>
       <c r="C89">
-        <v>0.3666374790043033</v>
+        <v>0.351650744307698</v>
       </c>
       <c r="D89">
-        <v>-0.0498465681913784</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.009459145973103907</v>
+      </c>
+      <c r="E89">
+        <v>-0.05898223740162786</v>
+      </c>
+      <c r="F89">
+        <v>0.05046123098915611</v>
+      </c>
+      <c r="G89">
+        <v>-0.03409136975919802</v>
+      </c>
+      <c r="H89">
+        <v>0.05584264961421668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2033587393950599</v>
+        <v>0.2391606945312671</v>
       </c>
       <c r="C90">
-        <v>0.2937703446518048</v>
+        <v>0.2584856390881043</v>
       </c>
       <c r="D90">
-        <v>-0.04801787517587946</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.007810935390396816</v>
+      </c>
+      <c r="E90">
+        <v>-0.04893315988184004</v>
+      </c>
+      <c r="F90">
+        <v>-0.01150817568382516</v>
+      </c>
+      <c r="G90">
+        <v>0.03175712270697899</v>
+      </c>
+      <c r="H90">
+        <v>0.05526749081899181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1755325186246839</v>
+        <v>0.1622747113246042</v>
       </c>
       <c r="C91">
-        <v>-0.1315571746524513</v>
+        <v>-0.1579206407679122</v>
       </c>
       <c r="D91">
-        <v>-0.05567767209196627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08108399226214129</v>
+      </c>
+      <c r="E91">
+        <v>-0.1061531736468423</v>
+      </c>
+      <c r="F91">
+        <v>-0.03078723586087348</v>
+      </c>
+      <c r="G91">
+        <v>-0.07569715796379733</v>
+      </c>
+      <c r="H91">
+        <v>-0.1126757991491961</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1652758456749087</v>
+        <v>0.2155668070670014</v>
       </c>
       <c r="C92">
-        <v>0.2826120349980318</v>
+        <v>0.2711175922298165</v>
       </c>
       <c r="D92">
-        <v>-0.008362976203496752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01575492829192453</v>
+      </c>
+      <c r="E92">
+        <v>-0.09282949415909597</v>
+      </c>
+      <c r="F92">
+        <v>0.01267576184022038</v>
+      </c>
+      <c r="G92">
+        <v>-0.00695185728146751</v>
+      </c>
+      <c r="H92">
+        <v>0.04813704236745223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2340093655150859</v>
+        <v>0.2647904434820982</v>
       </c>
       <c r="C93">
-        <v>0.3177753074384172</v>
+        <v>0.2723565246467151</v>
       </c>
       <c r="D93">
-        <v>-0.02616120377823312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01038370526201082</v>
+      </c>
+      <c r="E93">
+        <v>-0.0130501917933044</v>
+      </c>
+      <c r="F93">
+        <v>-0.02357401193453872</v>
+      </c>
+      <c r="G93">
+        <v>-0.008889271213421894</v>
+      </c>
+      <c r="H93">
+        <v>-0.002522085250293853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3925381548039995</v>
+        <v>0.3357304595794149</v>
       </c>
       <c r="C94">
-        <v>-0.2555791922603186</v>
+        <v>-0.2683588202595517</v>
       </c>
       <c r="D94">
-        <v>-0.4533700277388898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.440197695091458</v>
+      </c>
+      <c r="E94">
+        <v>-0.1210387055660023</v>
+      </c>
+      <c r="F94">
+        <v>0.02426349311033768</v>
+      </c>
+      <c r="G94">
+        <v>0.592638033022276</v>
+      </c>
+      <c r="H94">
+        <v>-0.05886334595601227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07952515999169089</v>
+        <v>0.0690327174893985</v>
       </c>
       <c r="C95">
-        <v>-0.07204436504821625</v>
+        <v>-0.06502971250256108</v>
       </c>
       <c r="D95">
-        <v>0.1244507083651819</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08372048878196905</v>
+      </c>
+      <c r="E95">
+        <v>-0.01823047881651458</v>
+      </c>
+      <c r="F95">
+        <v>0.9195639144049924</v>
+      </c>
+      <c r="G95">
+        <v>-0.07179938367301378</v>
+      </c>
+      <c r="H95">
+        <v>-0.08676629322636156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.176834026596291</v>
+        <v>0.16321447222028</v>
       </c>
       <c r="C98">
-        <v>-0.01626524249702707</v>
+        <v>-0.05856933039884088</v>
       </c>
       <c r="D98">
-        <v>0.1324609735620486</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1211012014751179</v>
+      </c>
+      <c r="E98">
+        <v>0.3157133609564176</v>
+      </c>
+      <c r="F98">
+        <v>-0.04795141289024184</v>
+      </c>
+      <c r="G98">
+        <v>-0.02768194485271649</v>
+      </c>
+      <c r="H98">
+        <v>-0.04615369562701251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005162185681201255</v>
+        <v>0.007088862512681252</v>
       </c>
       <c r="C101">
-        <v>-0.01738403915424343</v>
+        <v>-0.02193668735433331</v>
       </c>
       <c r="D101">
-        <v>0.06652892650297676</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0795042873918767</v>
+      </c>
+      <c r="E101">
+        <v>-0.03277748647794714</v>
+      </c>
+      <c r="F101">
+        <v>-0.003989545063650729</v>
+      </c>
+      <c r="G101">
+        <v>-0.02494665634258161</v>
+      </c>
+      <c r="H101">
+        <v>0.09543804146391301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1228893949182141</v>
+        <v>0.1098457281878876</v>
       </c>
       <c r="C102">
-        <v>-0.1160867731096717</v>
+        <v>-0.1198842312852282</v>
       </c>
       <c r="D102">
-        <v>-0.03184222603019824</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04938875425544376</v>
+      </c>
+      <c r="E102">
+        <v>-0.03341328494149658</v>
+      </c>
+      <c r="F102">
+        <v>0.02081400350724772</v>
+      </c>
+      <c r="G102">
+        <v>-0.05566653456717907</v>
+      </c>
+      <c r="H102">
+        <v>0.01917551655187207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
